--- a/database/industries/darou/desobhan/income/yearly/dollar.xlsx
+++ b/database/industries/darou/desobhan/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\desobhan\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A3668E-7943-42C4-8520-5274D7512D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0896F-7840-4FC9-97EC-1D30A855D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دسبحان-سبحان دارو</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-02-09 (13)</t>
-  </si>
-  <si>
-    <t>1394-02-06 (19)</t>
-  </si>
-  <si>
-    <t>1395-02-05 (21)</t>
-  </si>
-  <si>
-    <t>1396-02-20 (17)</t>
-  </si>
-  <si>
-    <t>1397-02-25 (15)</t>
-  </si>
-  <si>
     <t>1398-02-31 (9)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-03-08 (8)</t>
   </si>
   <si>
-    <t>1401-07-27 (4)</t>
+    <t>1401-10-28 (6)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -618,18 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +607,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +618,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +629,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +638,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +649,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +660,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +669,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +690,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,519 +720,304 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>23831</v>
+        <v>48392</v>
       </c>
       <c r="E11" s="13">
-        <v>34174</v>
+        <v>25617</v>
       </c>
       <c r="F11" s="13">
-        <v>43380</v>
+        <v>29989</v>
       </c>
       <c r="G11" s="13">
-        <v>48742</v>
+        <v>26191</v>
       </c>
       <c r="H11" s="13">
-        <v>42907</v>
-      </c>
-      <c r="I11" s="13">
-        <v>48392</v>
-      </c>
-      <c r="J11" s="13">
-        <v>25617</v>
-      </c>
-      <c r="K11" s="13">
-        <v>29989</v>
-      </c>
-      <c r="L11" s="13">
-        <v>26191</v>
-      </c>
-      <c r="M11" s="13">
         <v>27409</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-11419</v>
+        <v>-24286</v>
       </c>
       <c r="E12" s="11">
-        <v>-12990</v>
+        <v>-11759</v>
       </c>
       <c r="F12" s="11">
-        <v>-19588</v>
+        <v>-14297</v>
       </c>
       <c r="G12" s="11">
-        <v>-21468</v>
+        <v>-11451</v>
       </c>
       <c r="H12" s="11">
-        <v>-21625</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-24286</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-11759</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-14297</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-11451</v>
-      </c>
-      <c r="M12" s="11">
         <v>-15858</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>12412</v>
+        <v>24106</v>
       </c>
       <c r="E13" s="15">
-        <v>21184</v>
+        <v>13857</v>
       </c>
       <c r="F13" s="15">
-        <v>23792</v>
+        <v>15692</v>
       </c>
       <c r="G13" s="15">
-        <v>27274</v>
+        <v>14740</v>
       </c>
       <c r="H13" s="15">
-        <v>21282</v>
-      </c>
-      <c r="I13" s="15">
-        <v>24106</v>
-      </c>
-      <c r="J13" s="15">
-        <v>13857</v>
-      </c>
-      <c r="K13" s="15">
-        <v>15692</v>
-      </c>
-      <c r="L13" s="15">
-        <v>14740</v>
-      </c>
-      <c r="M13" s="15">
         <v>11552</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1684</v>
+        <v>-3893</v>
       </c>
       <c r="E14" s="11">
-        <v>-2583</v>
+        <v>-2667</v>
       </c>
       <c r="F14" s="11">
-        <v>-2676</v>
+        <v>-1377</v>
       </c>
       <c r="G14" s="11">
-        <v>-3230</v>
+        <v>-856</v>
       </c>
       <c r="H14" s="11">
-        <v>-2430</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-3893</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-2667</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-1377</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-856</v>
-      </c>
-      <c r="M14" s="11">
         <v>-1658</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-200</v>
+        <v>-30</v>
       </c>
       <c r="E16" s="11">
-        <v>-31</v>
+        <v>1203</v>
       </c>
       <c r="F16" s="11">
-        <v>-56</v>
+        <v>20</v>
       </c>
       <c r="G16" s="11">
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="H16" s="11">
-        <v>8</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-30</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1203</v>
-      </c>
-      <c r="K16" s="11">
-        <v>20</v>
-      </c>
-      <c r="L16" s="11">
-        <v>296</v>
-      </c>
-      <c r="M16" s="11">
         <v>-98</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>10529</v>
+        <v>20184</v>
       </c>
       <c r="E17" s="15">
-        <v>18570</v>
+        <v>12393</v>
       </c>
       <c r="F17" s="15">
-        <v>21060</v>
+        <v>14335</v>
       </c>
       <c r="G17" s="15">
-        <v>24058</v>
+        <v>14180</v>
       </c>
       <c r="H17" s="15">
-        <v>18860</v>
-      </c>
-      <c r="I17" s="15">
-        <v>20184</v>
-      </c>
-      <c r="J17" s="15">
-        <v>12393</v>
-      </c>
-      <c r="K17" s="15">
-        <v>14335</v>
-      </c>
-      <c r="L17" s="15">
-        <v>14180</v>
-      </c>
-      <c r="M17" s="15">
         <v>9796</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-312</v>
+        <v>-5737</v>
       </c>
       <c r="E18" s="11">
-        <v>-1328</v>
+        <v>-2390</v>
       </c>
       <c r="F18" s="11">
-        <v>-1453</v>
+        <v>-2048</v>
       </c>
       <c r="G18" s="11">
-        <v>-2595</v>
+        <v>-1369</v>
       </c>
       <c r="H18" s="11">
-        <v>-5133</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-5737</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-2390</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-2048</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-1369</v>
-      </c>
-      <c r="M18" s="11">
         <v>-2117</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>67</v>
+        <v>752</v>
       </c>
       <c r="E19" s="13">
-        <v>403</v>
+        <v>-127</v>
       </c>
       <c r="F19" s="13">
-        <v>530</v>
+        <v>258</v>
       </c>
       <c r="G19" s="13">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="H19" s="13">
-        <v>222</v>
-      </c>
-      <c r="I19" s="13">
-        <v>752</v>
-      </c>
-      <c r="J19" s="13">
-        <v>-127</v>
-      </c>
-      <c r="K19" s="13">
-        <v>258</v>
-      </c>
-      <c r="L19" s="13">
-        <v>352</v>
-      </c>
-      <c r="M19" s="13">
         <v>535</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>10284</v>
+        <v>15199</v>
       </c>
       <c r="E20" s="17">
-        <v>17645</v>
+        <v>9876</v>
       </c>
       <c r="F20" s="17">
-        <v>20137</v>
+        <v>12545</v>
       </c>
       <c r="G20" s="17">
-        <v>21542</v>
+        <v>13163</v>
       </c>
       <c r="H20" s="17">
-        <v>13949</v>
-      </c>
-      <c r="I20" s="17">
-        <v>15199</v>
-      </c>
-      <c r="J20" s="17">
-        <v>9876</v>
-      </c>
-      <c r="K20" s="17">
-        <v>12545</v>
-      </c>
-      <c r="L20" s="17">
-        <v>13163</v>
-      </c>
-      <c r="M20" s="17">
         <v>8214</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-2345</v>
+        <v>-3205</v>
       </c>
       <c r="E21" s="13">
-        <v>-4005</v>
+        <v>-2319</v>
       </c>
       <c r="F21" s="13">
-        <v>-4841</v>
+        <v>-2789</v>
       </c>
       <c r="G21" s="13">
-        <v>-4879</v>
+        <v>-2154</v>
       </c>
       <c r="H21" s="13">
-        <v>-3204</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-3205</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-2319</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-2789</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-2154</v>
-      </c>
-      <c r="M21" s="13">
         <v>-1375</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>7939</v>
+        <v>11994</v>
       </c>
       <c r="E22" s="17">
-        <v>13640</v>
+        <v>7558</v>
       </c>
       <c r="F22" s="17">
-        <v>15296</v>
+        <v>9756</v>
       </c>
       <c r="G22" s="17">
-        <v>16662</v>
+        <v>11009</v>
       </c>
       <c r="H22" s="17">
-        <v>10745</v>
-      </c>
-      <c r="I22" s="17">
-        <v>11994</v>
-      </c>
-      <c r="J22" s="17">
-        <v>7558</v>
-      </c>
-      <c r="K22" s="17">
-        <v>9756</v>
-      </c>
-      <c r="L22" s="17">
-        <v>11009</v>
-      </c>
-      <c r="M22" s="17">
         <v>6839</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>7939</v>
+        <v>11994</v>
       </c>
       <c r="E24" s="17">
-        <v>13640</v>
+        <v>7558</v>
       </c>
       <c r="F24" s="17">
-        <v>15296</v>
+        <v>9756</v>
       </c>
       <c r="G24" s="17">
-        <v>16662</v>
+        <v>11009</v>
       </c>
       <c r="H24" s="17">
-        <v>10745</v>
-      </c>
-      <c r="I24" s="17">
-        <v>11994</v>
-      </c>
-      <c r="J24" s="17">
-        <v>7558</v>
-      </c>
-      <c r="K24" s="17">
-        <v>9756</v>
-      </c>
-      <c r="L24" s="17">
-        <v>11009</v>
-      </c>
-      <c r="M24" s="17">
         <v>6839</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1345,61 +1035,31 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2851</v>
+        <v>14286</v>
       </c>
       <c r="E26" s="11">
-        <v>2838</v>
+        <v>10182</v>
       </c>
       <c r="F26" s="11">
-        <v>6122</v>
+        <v>8029</v>
       </c>
       <c r="G26" s="11">
-        <v>8934</v>
+        <v>6767</v>
       </c>
       <c r="H26" s="11">
-        <v>11845</v>
-      </c>
-      <c r="I26" s="11">
-        <v>14286</v>
-      </c>
-      <c r="J26" s="11">
-        <v>10182</v>
-      </c>
-      <c r="K26" s="11">
-        <v>8029</v>
-      </c>
-      <c r="L26" s="11">
-        <v>6767</v>
-      </c>
-      <c r="M26" s="11">
-        <v>9210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1417,23 +1077,8 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1086,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/desobhan/income/yearly/dollar.xlsx
+++ b/database/industries/darou/desobhan/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0896F-7840-4FC9-97EC-1D30A855D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819D862B-3E61-4E3E-A965-82B4F6E3F387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-02-31 (9)</t>
-  </si>
-  <si>
     <t>1399-03-21 (8)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-03-08 (8)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-28 (7)</t>
+  </si>
+  <si>
+    <t>1402-02-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,91 +721,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>48392</v>
+        <v>25617</v>
       </c>
       <c r="E11" s="13">
-        <v>25617</v>
+        <v>29989</v>
       </c>
       <c r="F11" s="13">
-        <v>29989</v>
+        <v>26191</v>
       </c>
       <c r="G11" s="13">
-        <v>26191</v>
+        <v>27409</v>
       </c>
       <c r="H11" s="13">
-        <v>27409</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>35012</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-24286</v>
+        <v>-11759</v>
       </c>
       <c r="E12" s="11">
-        <v>-11759</v>
+        <v>-14297</v>
       </c>
       <c r="F12" s="11">
-        <v>-14297</v>
+        <v>-11451</v>
       </c>
       <c r="G12" s="11">
-        <v>-11451</v>
+        <v>-15858</v>
       </c>
       <c r="H12" s="11">
-        <v>-15858</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-17813</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>24106</v>
+        <v>13857</v>
       </c>
       <c r="E13" s="15">
-        <v>13857</v>
+        <v>15692</v>
       </c>
       <c r="F13" s="15">
-        <v>15692</v>
+        <v>14740</v>
       </c>
       <c r="G13" s="15">
-        <v>14740</v>
+        <v>11552</v>
       </c>
       <c r="H13" s="15">
-        <v>11552</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3893</v>
+        <v>-2667</v>
       </c>
       <c r="E14" s="11">
-        <v>-2667</v>
+        <v>-1377</v>
       </c>
       <c r="F14" s="11">
-        <v>-1377</v>
+        <v>-856</v>
       </c>
       <c r="G14" s="11">
-        <v>-856</v>
+        <v>-1658</v>
       </c>
       <c r="H14" s="11">
-        <v>-1658</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1653</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -822,158 +822,158 @@
       <c r="G15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="13">
+        <v>-202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-30</v>
+        <v>1203</v>
       </c>
       <c r="E16" s="11">
-        <v>1203</v>
+        <v>20</v>
       </c>
       <c r="F16" s="11">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="G16" s="11">
-        <v>296</v>
+        <v>-98</v>
       </c>
       <c r="H16" s="11">
-        <v>-98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>20184</v>
+        <v>12393</v>
       </c>
       <c r="E17" s="15">
-        <v>12393</v>
+        <v>14335</v>
       </c>
       <c r="F17" s="15">
-        <v>14335</v>
+        <v>14180</v>
       </c>
       <c r="G17" s="15">
-        <v>14180</v>
+        <v>9796</v>
       </c>
       <c r="H17" s="15">
-        <v>9796</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-5737</v>
+        <v>-2390</v>
       </c>
       <c r="E18" s="11">
-        <v>-2390</v>
+        <v>-2048</v>
       </c>
       <c r="F18" s="11">
-        <v>-2048</v>
+        <v>-1369</v>
       </c>
       <c r="G18" s="11">
-        <v>-1369</v>
+        <v>-2117</v>
       </c>
       <c r="H18" s="11">
-        <v>-2117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2867</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>752</v>
+        <v>-127</v>
       </c>
       <c r="E19" s="13">
-        <v>-127</v>
+        <v>258</v>
       </c>
       <c r="F19" s="13">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="G19" s="13">
-        <v>352</v>
+        <v>535</v>
       </c>
       <c r="H19" s="13">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>15199</v>
+        <v>9876</v>
       </c>
       <c r="E20" s="17">
-        <v>9876</v>
+        <v>12545</v>
       </c>
       <c r="F20" s="17">
-        <v>12545</v>
+        <v>13163</v>
       </c>
       <c r="G20" s="17">
-        <v>13163</v>
+        <v>8214</v>
       </c>
       <c r="H20" s="17">
-        <v>8214</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12629</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-3205</v>
+        <v>-2319</v>
       </c>
       <c r="E21" s="13">
-        <v>-2319</v>
+        <v>-2789</v>
       </c>
       <c r="F21" s="13">
-        <v>-2789</v>
+        <v>-2154</v>
       </c>
       <c r="G21" s="13">
-        <v>-2154</v>
+        <v>-1375</v>
       </c>
       <c r="H21" s="13">
-        <v>-1375</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1861</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>11994</v>
+        <v>7558</v>
       </c>
       <c r="E22" s="17">
-        <v>7558</v>
+        <v>9756</v>
       </c>
       <c r="F22" s="17">
-        <v>9756</v>
+        <v>11009</v>
       </c>
       <c r="G22" s="17">
-        <v>11009</v>
+        <v>6839</v>
       </c>
       <c r="H22" s="17">
-        <v>6839</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10768</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,28 +994,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>11994</v>
+        <v>7558</v>
       </c>
       <c r="E24" s="17">
-        <v>7558</v>
+        <v>9756</v>
       </c>
       <c r="F24" s="17">
-        <v>9756</v>
+        <v>11009</v>
       </c>
       <c r="G24" s="17">
-        <v>11009</v>
+        <v>6839</v>
       </c>
       <c r="H24" s="17">
-        <v>6839</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10768</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,28 +1036,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>14286</v>
+        <v>10182</v>
       </c>
       <c r="E26" s="11">
-        <v>10182</v>
+        <v>8029</v>
       </c>
       <c r="F26" s="11">
-        <v>8029</v>
+        <v>6767</v>
       </c>
       <c r="G26" s="11">
-        <v>6767</v>
+        <v>9210</v>
       </c>
       <c r="H26" s="11">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10286</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/darou/desobhan/income/yearly/dollar.xlsx
+++ b/database/industries/darou/desobhan/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\darou\desobhan\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819D862B-3E61-4E3E-A965-82B4F6E3F387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D05EC-7E7B-4CD3-A99A-342CE76FD562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -64,10 +64,10 @@
     <t>1401-03-08 (8)</t>
   </si>
   <si>
-    <t>1402-02-28 (7)</t>
-  </si>
-  <si>
-    <t>1402-02-28</t>
+    <t>1402-03-07 (8)</t>
+  </si>
+  <si>
+    <t>1402-03-07 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -760,7 +760,7 @@
         <v>-15858</v>
       </c>
       <c r="H12" s="11">
-        <v>-17813</v>
+        <v>-17794</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -781,7 +781,7 @@
         <v>11552</v>
       </c>
       <c r="H13" s="15">
-        <v>17199</v>
+        <v>17218</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>-1658</v>
       </c>
       <c r="H14" s="11">
-        <v>-1653</v>
+        <v>-1854</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -822,8 +822,8 @@
       <c r="G15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="13">
-        <v>-202</v>
+      <c r="H15" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
         <v>-98</v>
       </c>
       <c r="H16" s="11">
-        <v>-121</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>9796</v>
       </c>
       <c r="H17" s="15">
-        <v>15224</v>
+        <v>15577</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
         <v>535</v>
       </c>
       <c r="H19" s="13">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
         <v>8214</v>
       </c>
       <c r="H20" s="17">
-        <v>12629</v>
+        <v>12970</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -949,7 +949,7 @@
         <v>-1375</v>
       </c>
       <c r="H21" s="13">
-        <v>-1861</v>
+        <v>-2128</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>6839</v>
       </c>
       <c r="H22" s="17">
-        <v>10768</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1012,7 +1012,7 @@
         <v>6839</v>
       </c>
       <c r="H24" s="17">
-        <v>10768</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
